--- a/src/test/resources/feature/Testdata/Logindata.xlsx
+++ b/src/test/resources/feature/Testdata/Logindata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5562CAF-4AB9-4726-B1C3-2D5E6F482F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6310D43C-5BB1-47F2-B770-D6360580BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>Emailid</t>
   </si>
@@ -40,34 +40,88 @@
     <t>password</t>
   </si>
   <si>
-    <t>Test05@gmail.com</t>
-  </si>
-  <si>
-    <t>test@ga</t>
-  </si>
-  <si>
     <t>Team05@gmail.com</t>
   </si>
   <si>
+    <t>ter@</t>
+  </si>
+  <si>
     <t>Usanumpy@2024</t>
   </si>
   <si>
-    <t>viana@gmail.com</t>
-  </si>
-  <si>
-    <t>snehateam05@gmail.com</t>
-  </si>
-  <si>
-    <t>Adam@gmail.com</t>
-  </si>
-  <si>
-    <t>Adward@gmail.com</t>
-  </si>
-  <si>
-    <t>alay@gmail.com</t>
-  </si>
-  <si>
-    <t>Dec@gmail.com</t>
+    <t>chicago@gmail.com</t>
+  </si>
+  <si>
+    <t>sanfranco@gmail.com</t>
+  </si>
+  <si>
+    <t>arrot@2025</t>
+  </si>
+  <si>
+    <t>atlanta@gmail.com</t>
+  </si>
+  <si>
+    <t>cati@2024</t>
+  </si>
+  <si>
+    <t>keshvraj@gmail.com</t>
+  </si>
+  <si>
+    <t>allure@2003</t>
+  </si>
+  <si>
+    <t>newyork40@gmail.co</t>
+  </si>
+  <si>
+    <t>67k</t>
+  </si>
+  <si>
+    <t>gallio23@gmail.com</t>
+  </si>
+  <si>
+    <t>systemhjkure12@2025</t>
+  </si>
+  <si>
+    <t>passpaort346@gmail.com</t>
+  </si>
+  <si>
+    <t>syshjudelhi12@2019</t>
+  </si>
+  <si>
+    <t>alidvia34@gmail.com</t>
+  </si>
+  <si>
+    <t>syshjkpune11@2019</t>
+  </si>
+  <si>
+    <t>onboarding11@gmail.com</t>
+  </si>
+  <si>
+    <t>systthjmumbai23@2017</t>
+  </si>
+  <si>
+    <t>nboardin12@gmail.com</t>
+  </si>
+  <si>
+    <t>tallysev@20</t>
+  </si>
+  <si>
+    <t>eletedata12@gmail.com</t>
+  </si>
+  <si>
+    <t>milahnjium12@2011</t>
+  </si>
+  <si>
+    <t>elenium11@gmail.com</t>
+  </si>
+  <si>
+    <t>photgbxed@2011</t>
+  </si>
+  <si>
+    <t>lementa11@gmail.com</t>
+  </si>
+  <si>
+    <t>valldcf22012</t>
   </si>
   <si>
     <t>EmailID</t>
@@ -82,37 +136,82 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Janiary@gmail.com</t>
-  </si>
-  <si>
-    <t>a@it</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>#%</t>
-  </si>
-  <si>
-    <t>adam</t>
-  </si>
-  <si>
-    <t>dam123</t>
-  </si>
-  <si>
-    <t>Team99@2025</t>
-  </si>
-  <si>
-    <t>adward</t>
-  </si>
-  <si>
-    <t>Team98@2025</t>
-  </si>
-  <si>
-    <t>alay</t>
-  </si>
-  <si>
-    <t>Team97@2025</t>
+    <t>ichign@gmail.com</t>
+  </si>
+  <si>
+    <t>irvingrlsd</t>
+  </si>
+  <si>
+    <t>danail23</t>
+  </si>
+  <si>
+    <t>erorgia@gmail.com</t>
+  </si>
+  <si>
+    <t>kristanxc</t>
+  </si>
+  <si>
+    <t>keystone12</t>
+  </si>
+  <si>
+    <t>kallina@gmail.com</t>
+  </si>
+  <si>
+    <t>adballet</t>
+  </si>
+  <si>
+    <t>talewe12</t>
+  </si>
+  <si>
+    <t>g7y8</t>
+  </si>
+  <si>
+    <t>alleitg</t>
+  </si>
+  <si>
+    <t>alllenin12</t>
+  </si>
+  <si>
+    <t>kajolrt</t>
+  </si>
+  <si>
+    <t>airiscdf13</t>
+  </si>
+  <si>
+    <t>deetg</t>
+  </si>
+  <si>
+    <t>asijhbg12</t>
+  </si>
+  <si>
+    <t>snesdf</t>
+  </si>
+  <si>
+    <t>valifgg12</t>
+  </si>
+  <si>
+    <t>advkafd</t>
+  </si>
+  <si>
+    <t>mnbfg45</t>
+  </si>
+  <si>
+    <t>ramtg</t>
+  </si>
+  <si>
+    <t>jhgfd12</t>
+  </si>
+  <si>
+    <t>krishnatg</t>
+  </si>
+  <si>
+    <t>bnmvc45</t>
+  </si>
+  <si>
+    <t>indiaana</t>
+  </si>
+  <si>
+    <t>tyuin45</t>
   </si>
 </sst>
 </file>
@@ -495,16 +594,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -534,64 +633,130 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D7888971-7FC8-4CE6-936F-BF60304C141A}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{D4748C4A-26C8-45F8-AB59-43D0F6511041}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{7A68AFAF-A155-4D85-9BBC-BB66C22C7E9D}"/>
-    <hyperlink ref="A8" r:id="rId4" xr:uid="{17B57883-E322-4F70-B390-185620D54684}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{7AB824DD-D621-4842-9C3E-FED7E32484DC}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{D7EAF590-17AF-443B-92B1-5D294988CB3F}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{F57D7C4D-C485-4B6F-9069-14A62B2E1D28}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{B1B97619-9285-43BC-8E19-34A4960EE14B}"/>
-    <hyperlink ref="A13" r:id="rId9" xr:uid="{59521FC3-73AC-41C2-9E8A-30A07E076032}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{F9096EAD-2131-430F-AF79-40D64DF76365}"/>
-    <hyperlink ref="A11" r:id="rId11" xr:uid="{CC19542A-5632-48C2-8C01-4441C700545C}"/>
-    <hyperlink ref="A12" r:id="rId12" xr:uid="{7FAD3555-1693-4B15-B0BA-4BB71792783A}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{7AB824DD-D621-4842-9C3E-FED7E32484DC}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{B1B97619-9285-43BC-8E19-34A4960EE14B}"/>
+    <hyperlink ref="A10" r:id="rId3" xr:uid="{7648B2EE-6298-4CF8-9B09-5EE422CC246E}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{84FA98FA-FEC2-474E-A6F3-E8F77636C130}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{96828F2E-0B43-4062-BEFF-7F0E32035519}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{479C7DA3-229C-4D70-8870-FDAEE86FE50E}"/>
+    <hyperlink ref="A4" r:id="rId7" xr:uid="{7D40490B-AB22-43AD-AA40-B85F06B2C52B}"/>
+    <hyperlink ref="A2" r:id="rId8" xr:uid="{1E2E8F17-62BE-43CE-A942-F3787B1265E4}"/>
+    <hyperlink ref="A8" r:id="rId9" xr:uid="{592FF09A-F88F-433E-9697-1E33E38AE856}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{CE813BD2-C65E-43AF-90EA-49482851841E}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{35F78AD6-9A4D-42A1-B133-DC6C132F6D6E}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{7A0E5DCF-6439-4AD2-A56B-C8A50908602C}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{340B2DC8-FE5D-4612-A6E0-898A0BA3C04E}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{A9A54C41-13B0-41AF-B667-4922993083FC}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{5499393D-45D6-4D7B-A2D0-98410B97B15E}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{C76CDC83-AB77-4E22-B75F-71E591D65685}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{ADB428D7-1A00-41D3-80FF-9CE958FD1082}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -599,100 +764,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182C6904-2408-41EC-8441-64A7077F3051}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>64</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7C4A67D5-B91D-46A9-A89E-8928B31DCC3B}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{48367FBA-706F-401D-B182-4D61A44F8CD3}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{1193D63C-46D9-403D-8C82-939678D906FF}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{442C27A2-B67C-4EF2-AAEB-DA356E7C9BC9}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{FFBB70CC-D48D-4A16-AA50-1EF41B799CC0}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{847B6BFF-1913-4BB7-B3DD-F39417D3C7A5}"/>
+    <hyperlink ref="A10" r:id="rId3" xr:uid="{6ADA158C-2D6C-47FD-A29F-6C8235533467}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{27689F0D-036F-4835-AABA-9993ADF8AC77}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{B42AF378-C437-4F92-97CA-F37DD1DC8536}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{277BD79C-1E5C-4A89-BA84-B516071BCD14}"/>
+    <hyperlink ref="A4" r:id="rId7" xr:uid="{1AA62299-87D3-4C1D-9A8D-5C51E6FECB8C}"/>
+    <hyperlink ref="A2" r:id="rId8" xr:uid="{259495F2-E3CA-4A0A-AFA1-F28C47CFD4AD}"/>
+    <hyperlink ref="A8" r:id="rId9" xr:uid="{80C0E8BB-EF7F-43D5-B86A-6F5EA3FD9921}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{1B6DDA82-FA8D-4AC3-829F-89B537321D8F}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{FB5B56C8-6D9F-49DC-8624-7B725371099C}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{62982CF8-64FD-4BF2-A16A-8F7DC3D34A24}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{793581A1-7112-472D-84B1-5901FECD6CE7}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{5503B077-8BE5-4438-96BE-9DD896D58B9E}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{EAA4C31B-87EF-4A61-B0C8-39D5DD437114}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{97CE6776-5235-463B-B835-5298EA7E84FB}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{BB2241AF-0E5E-40CF-AA75-06ED42FF606A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/feature/Testdata/Logindata.xlsx
+++ b/src/test/resources/feature/Testdata/Logindata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6310D43C-5BB1-47F2-B770-D6360580BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E27C5311-7F73-4DB9-B4AC-501D54D52C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>Emailid</t>
   </si>
@@ -82,46 +82,52 @@
     <t>systemhjkure12@2025</t>
   </si>
   <si>
-    <t>passpaort346@gmail.com</t>
+    <t>gallial12@gmail.com</t>
   </si>
   <si>
     <t>syshjudelhi12@2019</t>
   </si>
   <si>
-    <t>alidvia34@gmail.com</t>
+    <t>passpaortrepo12@gmail.com</t>
   </si>
   <si>
     <t>syshjkpune11@2019</t>
   </si>
   <si>
-    <t>onboarding11@gmail.com</t>
+    <t>alidvifg12@gmail.com</t>
   </si>
   <si>
     <t>systthjmumbai23@2017</t>
   </si>
   <si>
-    <t>nboardin12@gmail.com</t>
-  </si>
-  <si>
-    <t>tallysev@20</t>
-  </si>
-  <si>
-    <t>eletedata12@gmail.com</t>
+    <t>onboardin56@gmail.com</t>
+  </si>
+  <si>
+    <t>tallysev@2025</t>
+  </si>
+  <si>
+    <t>nboardivf56@gmail.com</t>
   </si>
   <si>
     <t>milahnjium12@2011</t>
   </si>
   <si>
-    <t>elenium11@gmail.com</t>
+    <t>eletedfg54@gmail.com</t>
   </si>
   <si>
     <t>photgbxed@2011</t>
   </si>
   <si>
-    <t>lementa11@gmail.com</t>
-  </si>
-  <si>
-    <t>valldcf22012</t>
+    <t>wafvg56@gmail.com</t>
+  </si>
+  <si>
+    <t>dvgt56@2012</t>
+  </si>
+  <si>
+    <t>vefg56@gmail.com</t>
+  </si>
+  <si>
+    <t>hgbntg@12</t>
   </si>
   <si>
     <t>EmailID</t>
@@ -202,16 +208,25 @@
     <t>jhgfd12</t>
   </si>
   <si>
+    <t>dvaerd12gmail.com</t>
+  </si>
+  <si>
     <t>krishnatg</t>
   </si>
   <si>
     <t>bnmvc45</t>
   </si>
   <si>
-    <t>indiaana</t>
-  </si>
-  <si>
-    <t>tyuin45</t>
+    <t>Algbh</t>
+  </si>
+  <si>
+    <t>sdvg23</t>
+  </si>
+  <si>
+    <t>plhju</t>
+  </si>
+  <si>
+    <t>tgyui45</t>
   </si>
 </sst>
 </file>
@@ -256,9 +271,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,64 +699,72 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -750,13 +779,14 @@
     <hyperlink ref="A2" r:id="rId8" xr:uid="{1E2E8F17-62BE-43CE-A942-F3787B1265E4}"/>
     <hyperlink ref="A8" r:id="rId9" xr:uid="{592FF09A-F88F-433E-9697-1E33E38AE856}"/>
     <hyperlink ref="A11" r:id="rId10" xr:uid="{CE813BD2-C65E-43AF-90EA-49482851841E}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{35F78AD6-9A4D-42A1-B133-DC6C132F6D6E}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{7A0E5DCF-6439-4AD2-A56B-C8A50908602C}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{340B2DC8-FE5D-4612-A6E0-898A0BA3C04E}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{A9A54C41-13B0-41AF-B667-4922993083FC}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{5499393D-45D6-4D7B-A2D0-98410B97B15E}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{C76CDC83-AB77-4E22-B75F-71E591D65685}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{ADB428D7-1A00-41D3-80FF-9CE958FD1082}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{3921163F-956D-47B4-8B8F-8D5D2D6C14E4}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{C9429DAD-5064-4C77-A843-65368EF54CE5}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{072557D9-2304-4C02-B321-21BCA9E1E2CD}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{9D7759D5-D23F-4EAA-A6A4-12D5FC7BDA21}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{C1E0DA0F-7D82-4AE3-9A98-DD1157431AED}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{6E77CC15-4E9A-4AC3-B566-B201AB515BCE}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{E7BCB6A5-5580-4E0F-9A02-96DD6C658243}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{C8795229-87B6-4A26-8286-E9CC9AFCD465}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -764,31 +794,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182C6904-2408-41EC-8441-64A7077F3051}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -818,13 +849,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -832,13 +863,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -846,13 +877,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -866,122 +897,136 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+    <row r="11" spans="1:4" ht="29.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
+      <c r="A12" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
+      <c r="A13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
+      <c r="A15" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
+      <c r="A16" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
+      <c r="A17" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -995,14 +1040,15 @@
     <hyperlink ref="A4" r:id="rId7" xr:uid="{1AA62299-87D3-4C1D-9A8D-5C51E6FECB8C}"/>
     <hyperlink ref="A2" r:id="rId8" xr:uid="{259495F2-E3CA-4A0A-AFA1-F28C47CFD4AD}"/>
     <hyperlink ref="A8" r:id="rId9" xr:uid="{80C0E8BB-EF7F-43D5-B86A-6F5EA3FD9921}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{1B6DDA82-FA8D-4AC3-829F-89B537321D8F}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{FB5B56C8-6D9F-49DC-8624-7B725371099C}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{62982CF8-64FD-4BF2-A16A-8F7DC3D34A24}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{793581A1-7112-472D-84B1-5901FECD6CE7}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{5503B077-8BE5-4438-96BE-9DD896D58B9E}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{EAA4C31B-87EF-4A61-B0C8-39D5DD437114}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{97CE6776-5235-463B-B835-5298EA7E84FB}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{BB2241AF-0E5E-40CF-AA75-06ED42FF606A}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{3A449657-79C2-432B-B682-33D44297E3F2}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{544D36CE-7B32-470E-8AA7-CF1E592DDAA3}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{14500293-C16F-473E-A276-0509E7FB071E}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{93A49067-3078-4921-9353-867CC5FF5B39}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{ABF8BE76-A1E9-44B7-9588-86749BAD67B4}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{27779B7F-6EE4-47B0-BCF1-5CF6823758A0}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{1E1CBF7E-E66D-48AC-85C9-93B16BECB4D9}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{BB206936-F43B-4120-A295-01482813BC6B}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{BCF44507-8E61-4ED0-8421-30EC55E88976}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/feature/Testdata/Logindata.xlsx
+++ b/src/test/resources/feature/Testdata/Logindata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29101"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E27C5311-7F73-4DB9-B4AC-501D54D52C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A8450DD-3824-4BA9-8758-529C51691F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
   <si>
     <t>Emailid</t>
   </si>
@@ -49,85 +49,148 @@
     <t>Usanumpy@2024</t>
   </si>
   <si>
-    <t>chicago@gmail.com</t>
-  </si>
-  <si>
-    <t>sanfranco@gmail.com</t>
-  </si>
-  <si>
-    <t>arrot@2025</t>
-  </si>
-  <si>
-    <t>atlanta@gmail.com</t>
-  </si>
-  <si>
-    <t>cati@2024</t>
-  </si>
-  <si>
-    <t>keshvraj@gmail.com</t>
-  </si>
-  <si>
-    <t>allure@2003</t>
-  </si>
-  <si>
-    <t>newyork40@gmail.co</t>
+    <t>germany12@gmail.com</t>
+  </si>
+  <si>
+    <t>scotland2@gmail.com</t>
+  </si>
+  <si>
+    <t>hyuji@2025</t>
+  </si>
+  <si>
+    <t>orway12@gmail.com</t>
+  </si>
+  <si>
+    <t>mkjnh@2024</t>
+  </si>
+  <si>
+    <t>adha13@gmail.com</t>
+  </si>
+  <si>
+    <t>extent@2003</t>
+  </si>
+  <si>
+    <t>ales34@gmail.co</t>
   </si>
   <si>
     <t>67k</t>
   </si>
   <si>
-    <t>gallio23@gmail.com</t>
-  </si>
-  <si>
-    <t>systemhjkure12@2025</t>
-  </si>
-  <si>
-    <t>gallial12@gmail.com</t>
-  </si>
-  <si>
-    <t>syshjudelhi12@2019</t>
-  </si>
-  <si>
-    <t>passpaortrepo12@gmail.com</t>
-  </si>
-  <si>
-    <t>syshjkpune11@2019</t>
-  </si>
-  <si>
-    <t>alidvifg12@gmail.com</t>
-  </si>
-  <si>
-    <t>systthjmumbai23@2017</t>
-  </si>
-  <si>
-    <t>onboardin56@gmail.com</t>
-  </si>
-  <si>
-    <t>tallysev@2025</t>
-  </si>
-  <si>
-    <t>nboardivf56@gmail.com</t>
-  </si>
-  <si>
-    <t>milahnjium12@2011</t>
-  </si>
-  <si>
-    <t>eletedfg54@gmail.com</t>
-  </si>
-  <si>
-    <t>photgbxed@2011</t>
-  </si>
-  <si>
-    <t>wafvg56@gmail.com</t>
-  </si>
-  <si>
-    <t>dvgt56@2012</t>
-  </si>
-  <si>
-    <t>vefg56@gmail.com</t>
-  </si>
-  <si>
-    <t>hgbntg@12</t>
+    <t>horllate23@gmail.com</t>
+  </si>
+  <si>
+    <t>yhtgry@2025</t>
+  </si>
+  <si>
+    <t>einsin12@gmail.com</t>
+  </si>
+  <si>
+    <t>hjuik@2019</t>
+  </si>
+  <si>
+    <t>anjgolai12@gmail.com</t>
+  </si>
+  <si>
+    <t>rtydfh@2019</t>
+  </si>
+  <si>
+    <t>hivahi23@gmail.com</t>
+  </si>
+  <si>
+    <t>nupama@2017</t>
+  </si>
+  <si>
+    <t>dfupload56@gmail.com</t>
+  </si>
+  <si>
+    <t>rfgty@2025</t>
+  </si>
+  <si>
+    <t>tepwe12@gmail.com</t>
+  </si>
+  <si>
+    <t>greenbelt@2011</t>
+  </si>
+  <si>
+    <t>westmotg12@gmail.com</t>
+  </si>
+  <si>
+    <t>redline@2011</t>
+  </si>
+  <si>
+    <t>tghy45@gmail.com</t>
+  </si>
+  <si>
+    <t>rtyuhg@2012</t>
+  </si>
+  <si>
+    <t>yhjt56@gmail.com</t>
+  </si>
+  <si>
+    <t>fgrty@2013</t>
+  </si>
+  <si>
+    <t>hju45@gmail.com</t>
+  </si>
+  <si>
+    <t>hjkrt@90</t>
+  </si>
+  <si>
+    <t>tally56@gmail.com</t>
+  </si>
+  <si>
+    <t>fvgbh@345</t>
+  </si>
+  <si>
+    <t>Aishu67@gmail.com</t>
+  </si>
+  <si>
+    <t>ioyut@34</t>
+  </si>
+  <si>
+    <t>geeta56@gmail.com</t>
+  </si>
+  <si>
+    <t>ujhb@78</t>
+  </si>
+  <si>
+    <t>kavita34@gmail.com</t>
+  </si>
+  <si>
+    <t>zxcvd@67</t>
+  </si>
+  <si>
+    <t>rfgtyh12@gmail.com</t>
+  </si>
+  <si>
+    <t>olkm@34</t>
+  </si>
+  <si>
+    <t>yhjuk23@gmail.com</t>
+  </si>
+  <si>
+    <t>qweds@78</t>
+  </si>
+  <si>
+    <t>ujkiol@gmail.com</t>
+  </si>
+  <si>
+    <t>rtyuio@gmail.com</t>
+  </si>
+  <si>
+    <t>ikjnhy@34</t>
+  </si>
+  <si>
+    <t>yhjuik@gmail.com</t>
+  </si>
+  <si>
+    <t>yhbnju$5</t>
+  </si>
+  <si>
+    <t>cvnm@gmail.com</t>
+  </si>
+  <si>
+    <t>qwert@345</t>
   </si>
   <si>
     <t>EmailID</t>
@@ -142,98 +205,152 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ichign@gmail.com</t>
-  </si>
-  <si>
-    <t>irvingrlsd</t>
-  </si>
-  <si>
-    <t>danail23</t>
-  </si>
-  <si>
-    <t>erorgia@gmail.com</t>
-  </si>
-  <si>
-    <t>kristanxc</t>
-  </si>
-  <si>
-    <t>keystone12</t>
-  </si>
-  <si>
-    <t>kallina@gmail.com</t>
-  </si>
-  <si>
-    <t>adballet</t>
-  </si>
-  <si>
-    <t>talewe12</t>
+    <t>tgrfh</t>
+  </si>
+  <si>
+    <t>sandeep23</t>
+  </si>
+  <si>
+    <t>fgrtd</t>
+  </si>
+  <si>
+    <t>kishori12</t>
+  </si>
+  <si>
+    <t>aadha</t>
+  </si>
+  <si>
+    <t>neeta12</t>
   </si>
   <si>
     <t>g7y8</t>
   </si>
   <si>
-    <t>alleitg</t>
-  </si>
-  <si>
-    <t>alllenin12</t>
-  </si>
-  <si>
-    <t>kajolrt</t>
-  </si>
-  <si>
-    <t>airiscdf13</t>
-  </si>
-  <si>
-    <t>deetg</t>
-  </si>
-  <si>
-    <t>asijhbg12</t>
-  </si>
-  <si>
-    <t>snesdf</t>
-  </si>
-  <si>
-    <t>valifgg12</t>
-  </si>
-  <si>
-    <t>advkafd</t>
-  </si>
-  <si>
-    <t>mnbfg45</t>
+    <t>tghyu</t>
+  </si>
+  <si>
+    <t>ujhgt12</t>
+  </si>
+  <si>
+    <t>allergy</t>
+  </si>
+  <si>
+    <t>yhgfr13</t>
+  </si>
+  <si>
+    <t>giben</t>
+  </si>
+  <si>
+    <t>ujgfq12</t>
+  </si>
+  <si>
+    <t>rgeb</t>
+  </si>
+  <si>
+    <t>yhgfr42</t>
+  </si>
+  <si>
+    <t>yhujd</t>
+  </si>
+  <si>
+    <t>tgrfd45</t>
   </si>
   <si>
     <t>ramtg</t>
   </si>
   <si>
-    <t>jhgfd12</t>
-  </si>
-  <si>
-    <t>dvaerd12gmail.com</t>
-  </si>
-  <si>
-    <t>krishnatg</t>
-  </si>
-  <si>
-    <t>bnmvc45</t>
-  </si>
-  <si>
-    <t>Algbh</t>
-  </si>
-  <si>
-    <t>sdvg23</t>
-  </si>
-  <si>
-    <t>plhju</t>
-  </si>
-  <si>
-    <t>tgyui45</t>
+    <t>yhgfs12</t>
+  </si>
+  <si>
+    <t>ikjhb</t>
+  </si>
+  <si>
+    <t>tesla45</t>
+  </si>
+  <si>
+    <t>qasxd</t>
+  </si>
+  <si>
+    <t>dsygf56</t>
+  </si>
+  <si>
+    <t>yhjnb</t>
+  </si>
+  <si>
+    <t>hgffd43</t>
+  </si>
+  <si>
+    <t>qwasq</t>
+  </si>
+  <si>
+    <t>yhgb36</t>
+  </si>
+  <si>
+    <t>veeba</t>
+  </si>
+  <si>
+    <t>fghb45</t>
+  </si>
+  <si>
+    <t>rohini</t>
+  </si>
+  <si>
+    <t>tyui34</t>
+  </si>
+  <si>
+    <t>yhgvf</t>
+  </si>
+  <si>
+    <t>tgjk12</t>
+  </si>
+  <si>
+    <t>zxcvg</t>
+  </si>
+  <si>
+    <t>ally34</t>
+  </si>
+  <si>
+    <t>yhgbf</t>
+  </si>
+  <si>
+    <t>raju12</t>
+  </si>
+  <si>
+    <t>hjyug</t>
+  </si>
+  <si>
+    <t>geetu12</t>
+  </si>
+  <si>
+    <t>dcfgb</t>
+  </si>
+  <si>
+    <t>amu12</t>
+  </si>
+  <si>
+    <t>ertyu</t>
+  </si>
+  <si>
+    <t>rohit12</t>
+  </si>
+  <si>
+    <t>fghhy</t>
+  </si>
+  <si>
+    <t>raina12</t>
+  </si>
+  <si>
+    <t>sxdcfg</t>
+  </si>
+  <si>
+    <t>sonali12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,13 +366,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -280,6 +410,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,8 +791,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" s="5" customFormat="1">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -765,6 +898,94 @@
       </c>
       <c r="B19" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="6" customFormat="1">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -785,8 +1006,19 @@
     <hyperlink ref="A15" r:id="rId14" xr:uid="{9D7759D5-D23F-4EAA-A6A4-12D5FC7BDA21}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{C1E0DA0F-7D82-4AE3-9A98-DD1157431AED}"/>
     <hyperlink ref="A17" r:id="rId16" xr:uid="{6E77CC15-4E9A-4AC3-B566-B201AB515BCE}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{E7BCB6A5-5580-4E0F-9A02-96DD6C658243}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{C8795229-87B6-4A26-8286-E9CC9AFCD465}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{46392612-C6FC-4867-9103-D7F4BE5229AF}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{784908A7-DDFC-42E8-8D3A-1C7FB11067CD}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{5EB2CA5D-26E3-4F55-A828-47ACA634621D}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{936D4D2F-6C14-4327-9131-CB325306EA02}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{74935A53-C18C-45BE-B2B0-42A087FB4E6B}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{89049444-A89E-4004-945E-81C869B5A8AF}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{846D15D9-826A-48A7-AD35-A06E1F599C36}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{E05917EE-844C-4004-86CF-C787AAB76F58}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{F686FA36-5DB0-4678-98AC-A1EAC6AEFABF}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{1657BD6C-3857-4032-AB67-D53A22F3044A}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{4978E5B1-F2DE-4D15-A5D6-4DE7951FC5DB}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{18E31089-88F0-465E-9844-6B593EFDF98C}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{93D8FA3F-D82E-446F-A4A8-89F9C210410E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -794,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182C6904-2408-41EC-8441-64A7077F3051}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,16 +1042,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -843,19 +1075,20 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -863,13 +1096,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -877,13 +1110,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -897,21 +1130,21 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>15</v>
@@ -919,13 +1152,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -933,13 +1166,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -947,13 +1180,13 @@
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>21</v>
@@ -961,13 +1194,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>23</v>
@@ -975,13 +1208,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>25</v>
@@ -989,13 +1222,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>27</v>
@@ -1006,10 +1239,10 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -1020,35 +1253,200 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{FFBB70CC-D48D-4A16-AA50-1EF41B799CC0}"/>
-    <hyperlink ref="A9" r:id="rId2" xr:uid="{847B6BFF-1913-4BB7-B3DD-F39417D3C7A5}"/>
-    <hyperlink ref="A10" r:id="rId3" xr:uid="{6ADA158C-2D6C-47FD-A29F-6C8235533467}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{27689F0D-036F-4835-AABA-9993ADF8AC77}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{B42AF378-C437-4F92-97CA-F37DD1DC8536}"/>
-    <hyperlink ref="A5" r:id="rId6" xr:uid="{277BD79C-1E5C-4A89-BA84-B516071BCD14}"/>
-    <hyperlink ref="A4" r:id="rId7" xr:uid="{1AA62299-87D3-4C1D-9A8D-5C51E6FECB8C}"/>
-    <hyperlink ref="A2" r:id="rId8" xr:uid="{259495F2-E3CA-4A0A-AFA1-F28C47CFD4AD}"/>
-    <hyperlink ref="A8" r:id="rId9" xr:uid="{80C0E8BB-EF7F-43D5-B86A-6F5EA3FD9921}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{3A449657-79C2-432B-B682-33D44297E3F2}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{544D36CE-7B32-470E-8AA7-CF1E592DDAA3}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{14500293-C16F-473E-A276-0509E7FB071E}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{93A49067-3078-4921-9353-867CC5FF5B39}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{ABF8BE76-A1E9-44B7-9588-86749BAD67B4}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{27779B7F-6EE4-47B0-BCF1-5CF6823758A0}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{1E1CBF7E-E66D-48AC-85C9-93B16BECB4D9}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{BB206936-F43B-4120-A295-01482813BC6B}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{BCF44507-8E61-4ED0-8421-30EC55E88976}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{27689F0D-036F-4835-AABA-9993ADF8AC77}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{277BD79C-1E5C-4A89-BA84-B516071BCD14}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{1AA62299-87D3-4C1D-9A8D-5C51E6FECB8C}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{259495F2-E3CA-4A0A-AFA1-F28C47CFD4AD}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{642DFBD0-8EC0-46CA-91E0-C5C7F532C2BE}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{F7B006B3-A851-4837-B887-ADC15CD6AEC8}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{CBDBF74A-3C94-4C24-97A0-DC52D70DC9FC}"/>
+    <hyperlink ref="A6" r:id="rId8" xr:uid="{3A2A914B-97E3-416F-A4E2-89DBA0FC3318}"/>
+    <hyperlink ref="A8" r:id="rId9" xr:uid="{2FF2F847-2585-46F0-ADCB-93A440DA9C19}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{BEA89920-6BB5-417A-900B-C5790D493B71}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{E0FF771D-7B43-4AEA-AD1F-868CEB0C82DD}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{0EEA2B75-05CF-4115-8F67-C717B47F7044}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{C88E53CE-392B-4D26-818E-BE11995A9096}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{D5E2806D-5576-4599-A31B-1BB8314B4A2B}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{ABBA7DEE-6CCF-42DA-A428-9A7FEBBB094C}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{F4F61EE3-7CD2-4E3D-A276-3FAC512E0F3B}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{7807C72D-78A0-45A6-88F3-2CF6C40455A3}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{08DE11EF-C113-4B3B-94F5-CCECA2D853E7}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{ADF1BA70-4C74-49A2-B6E0-E90CC92CA610}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{44B644E3-2702-4E94-855C-D1C6712C30EA}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{F4FB832B-8BF3-46E5-B4B4-3E9277C03581}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{A7F617FB-E50A-4E5C-9431-CFEF7ADADFAD}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{0D7AE097-A33D-4B90-B81F-AA5CDEC3F534}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{D4A55653-9B14-49DE-91DD-9FA39BBD26B1}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{B15D9691-4722-480B-A07D-219F55F0F15C}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{DA4514FE-6EA2-4599-A2D0-ABEDCD8B8C29}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{653247FC-AB01-4291-AC8D-632C0BA91EC9}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{EB289A0D-F388-46DE-AFED-485CA42C13AC}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{A11B7AFC-77BC-4E83-9FFC-0DE3AE30F10A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/feature/Testdata/Logindata.xlsx
+++ b/src/test/resources/feature/Testdata/Logindata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29101"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A8450DD-3824-4BA9-8758-529C51691F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E60A70F-74AE-4FDC-8542-2941962FEF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>Emailid</t>
   </si>
@@ -106,34 +106,34 @@
     <t>rfgty@2025</t>
   </si>
   <si>
-    <t>tepwe12@gmail.com</t>
-  </si>
-  <si>
-    <t>greenbelt@2011</t>
-  </si>
-  <si>
-    <t>westmotg12@gmail.com</t>
-  </si>
-  <si>
-    <t>redline@2011</t>
-  </si>
-  <si>
-    <t>tghy45@gmail.com</t>
-  </si>
-  <si>
-    <t>rtyuhg@2012</t>
-  </si>
-  <si>
-    <t>yhjt56@gmail.com</t>
-  </si>
-  <si>
-    <t>fgrty@2013</t>
-  </si>
-  <si>
-    <t>hju45@gmail.com</t>
-  </si>
-  <si>
-    <t>hjkrt@90</t>
+    <t>tepd54@gmail.com</t>
+  </si>
+  <si>
+    <t>chlout@2011</t>
+  </si>
+  <si>
+    <t>wegf56@gmail.com</t>
+  </si>
+  <si>
+    <t>tyhgu@2011</t>
+  </si>
+  <si>
+    <t>tgrfhj12@gmail.com</t>
+  </si>
+  <si>
+    <t>fedtw@543</t>
+  </si>
+  <si>
+    <t>jyhgt56@gmail.com</t>
+  </si>
+  <si>
+    <t>kiujh@213</t>
+  </si>
+  <si>
+    <t>grfyfgt56@gmail.com</t>
+  </si>
+  <si>
+    <t>rfdetr@34</t>
   </si>
   <si>
     <t>tally56@gmail.com</t>
@@ -175,10 +175,10 @@
     <t>ujkiol@gmail.com</t>
   </si>
   <si>
-    <t>rtyuio@gmail.com</t>
-  </si>
-  <si>
-    <t>ikjnhy@34</t>
+    <t>nayan12@gmail.com</t>
+  </si>
+  <si>
+    <t>numpyjuly@2025</t>
   </si>
   <si>
     <t>yhjuik@gmail.com</t>
@@ -256,34 +256,52 @@
     <t>tgrfd45</t>
   </si>
   <si>
-    <t>ramtg</t>
-  </si>
-  <si>
-    <t>yhgfs12</t>
-  </si>
-  <si>
-    <t>ikjhb</t>
-  </si>
-  <si>
-    <t>tesla45</t>
-  </si>
-  <si>
-    <t>qasxd</t>
-  </si>
-  <si>
-    <t>dsygf56</t>
-  </si>
-  <si>
-    <t>yhjnb</t>
-  </si>
-  <si>
-    <t>hgffd43</t>
-  </si>
-  <si>
-    <t>qwasq</t>
-  </si>
-  <si>
-    <t>yhgb36</t>
+    <t>rtghy</t>
+  </si>
+  <si>
+    <t>yhngj34</t>
+  </si>
+  <si>
+    <t>fgtghy</t>
+  </si>
+  <si>
+    <t>ghfhju87</t>
+  </si>
+  <si>
+    <t>azws12@gmail.com</t>
+  </si>
+  <si>
+    <t>okmnji</t>
+  </si>
+  <si>
+    <t>tgvbhy34</t>
+  </si>
+  <si>
+    <t>yuhgtw@43</t>
+  </si>
+  <si>
+    <t>dcws23@gmail.com</t>
+  </si>
+  <si>
+    <t>yhntgb</t>
+  </si>
+  <si>
+    <t>yhbgt34</t>
+  </si>
+  <si>
+    <t>yhnbgy@213</t>
+  </si>
+  <si>
+    <t>jntgm12@gmail.com</t>
+  </si>
+  <si>
+    <t>qweasd</t>
+  </si>
+  <si>
+    <t>tgbrf56</t>
+  </si>
+  <si>
+    <t>ujnhyu45@34</t>
   </si>
   <si>
     <t>veeba</t>
@@ -316,7 +334,7 @@
     <t>raju12</t>
   </si>
   <si>
-    <t>hjyug</t>
+    <t>nayan</t>
   </si>
   <si>
     <t>geetu12</t>
@@ -328,10 +346,7 @@
     <t>amu12</t>
   </si>
   <si>
-    <t>ertyu</t>
-  </si>
-  <si>
-    <t>rohit12</t>
+    <t>allure12</t>
   </si>
   <si>
     <t>fghhy</t>
@@ -750,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1006,19 +1021,19 @@
     <hyperlink ref="A15" r:id="rId14" xr:uid="{9D7759D5-D23F-4EAA-A6A4-12D5FC7BDA21}"/>
     <hyperlink ref="A16" r:id="rId15" xr:uid="{C1E0DA0F-7D82-4AE3-9A98-DD1157431AED}"/>
     <hyperlink ref="A17" r:id="rId16" xr:uid="{6E77CC15-4E9A-4AC3-B566-B201AB515BCE}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{46392612-C6FC-4867-9103-D7F4BE5229AF}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{784908A7-DDFC-42E8-8D3A-1C7FB11067CD}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{5EB2CA5D-26E3-4F55-A828-47ACA634621D}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{936D4D2F-6C14-4327-9131-CB325306EA02}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{74935A53-C18C-45BE-B2B0-42A087FB4E6B}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{89049444-A89E-4004-945E-81C869B5A8AF}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{846D15D9-826A-48A7-AD35-A06E1F599C36}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{E05917EE-844C-4004-86CF-C787AAB76F58}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{F686FA36-5DB0-4678-98AC-A1EAC6AEFABF}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{1657BD6C-3857-4032-AB67-D53A22F3044A}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{4978E5B1-F2DE-4D15-A5D6-4DE7951FC5DB}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{18E31089-88F0-465E-9844-6B593EFDF98C}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{93D8FA3F-D82E-446F-A4A8-89F9C210410E}"/>
+    <hyperlink ref="A20" r:id="rId17" xr:uid="{5EB2CA5D-26E3-4F55-A828-47ACA634621D}"/>
+    <hyperlink ref="A21" r:id="rId18" xr:uid="{936D4D2F-6C14-4327-9131-CB325306EA02}"/>
+    <hyperlink ref="A22" r:id="rId19" xr:uid="{74935A53-C18C-45BE-B2B0-42A087FB4E6B}"/>
+    <hyperlink ref="A23" r:id="rId20" xr:uid="{89049444-A89E-4004-945E-81C869B5A8AF}"/>
+    <hyperlink ref="A24" r:id="rId21" xr:uid="{846D15D9-826A-48A7-AD35-A06E1F599C36}"/>
+    <hyperlink ref="A25" r:id="rId22" xr:uid="{E05917EE-844C-4004-86CF-C787AAB76F58}"/>
+    <hyperlink ref="A26" r:id="rId23" xr:uid="{F686FA36-5DB0-4678-98AC-A1EAC6AEFABF}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{1657BD6C-3857-4032-AB67-D53A22F3044A}"/>
+    <hyperlink ref="A29" r:id="rId25" xr:uid="{18E31089-88F0-465E-9844-6B593EFDF98C}"/>
+    <hyperlink ref="A30" r:id="rId26" xr:uid="{93D8FA3F-D82E-446F-A4A8-89F9C210410E}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{8FA8687D-EA19-42E8-AEB9-CCA48D90F314}"/>
+    <hyperlink ref="A18" r:id="rId28" xr:uid="{9145FAA7-154D-46C1-928A-2A25E6A9DFDB}"/>
+    <hyperlink ref="A19" r:id="rId29" xr:uid="{F3CB9E0A-74BD-4B9C-80C5-5C19C220B437}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1028,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182C6904-2408-41EC-8441-64A7077F3051}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1236,44 +1251,44 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1281,10 +1296,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>35</v>
@@ -1295,10 +1310,10 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -1309,10 +1324,10 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -1323,10 +1338,10 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
@@ -1337,10 +1352,10 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
@@ -1348,13 +1363,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
@@ -1365,10 +1380,10 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
@@ -1379,10 +1394,10 @@
         <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
@@ -1393,10 +1408,10 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
@@ -1407,10 +1422,10 @@
         <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
@@ -1432,21 +1447,21 @@
     <hyperlink ref="A13" r:id="rId12" xr:uid="{0EEA2B75-05CF-4115-8F67-C717B47F7044}"/>
     <hyperlink ref="A14" r:id="rId13" xr:uid="{C88E53CE-392B-4D26-818E-BE11995A9096}"/>
     <hyperlink ref="A15" r:id="rId14" xr:uid="{D5E2806D-5576-4599-A31B-1BB8314B4A2B}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{ABBA7DEE-6CCF-42DA-A428-9A7FEBBB094C}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{F4F61EE3-7CD2-4E3D-A276-3FAC512E0F3B}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{7807C72D-78A0-45A6-88F3-2CF6C40455A3}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{08DE11EF-C113-4B3B-94F5-CCECA2D853E7}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{ADF1BA70-4C74-49A2-B6E0-E90CC92CA610}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{44B644E3-2702-4E94-855C-D1C6712C30EA}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{F4FB832B-8BF3-46E5-B4B4-3E9277C03581}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{A7F617FB-E50A-4E5C-9431-CFEF7ADADFAD}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{0D7AE097-A33D-4B90-B81F-AA5CDEC3F534}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{D4A55653-9B14-49DE-91DD-9FA39BBD26B1}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{B15D9691-4722-480B-A07D-219F55F0F15C}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{DA4514FE-6EA2-4599-A2D0-ABEDCD8B8C29}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{653247FC-AB01-4291-AC8D-632C0BA91EC9}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{EB289A0D-F388-46DE-AFED-485CA42C13AC}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{A11B7AFC-77BC-4E83-9FFC-0DE3AE30F10A}"/>
+    <hyperlink ref="A18" r:id="rId15" xr:uid="{7807C72D-78A0-45A6-88F3-2CF6C40455A3}"/>
+    <hyperlink ref="A21" r:id="rId16" xr:uid="{44B644E3-2702-4E94-855C-D1C6712C30EA}"/>
+    <hyperlink ref="A22" r:id="rId17" xr:uid="{F4FB832B-8BF3-46E5-B4B4-3E9277C03581}"/>
+    <hyperlink ref="A23" r:id="rId18" xr:uid="{A7F617FB-E50A-4E5C-9431-CFEF7ADADFAD}"/>
+    <hyperlink ref="A24" r:id="rId19" xr:uid="{0D7AE097-A33D-4B90-B81F-AA5CDEC3F534}"/>
+    <hyperlink ref="A25" r:id="rId20" xr:uid="{D4A55653-9B14-49DE-91DD-9FA39BBD26B1}"/>
+    <hyperlink ref="A26" r:id="rId21" xr:uid="{B15D9691-4722-480B-A07D-219F55F0F15C}"/>
+    <hyperlink ref="A27" r:id="rId22" xr:uid="{DA4514FE-6EA2-4599-A2D0-ABEDCD8B8C29}"/>
+    <hyperlink ref="A29" r:id="rId23" xr:uid="{EB289A0D-F388-46DE-AFED-485CA42C13AC}"/>
+    <hyperlink ref="A30" r:id="rId24" xr:uid="{A11B7AFC-77BC-4E83-9FFC-0DE3AE30F10A}"/>
+    <hyperlink ref="A28" r:id="rId25" xr:uid="{41AB1F85-12FE-45F1-800C-CEFF36A06FD0}"/>
+    <hyperlink ref="A16" r:id="rId26" xr:uid="{2D0116F6-3EE7-4CAA-AD6E-0010BD22CF8D}"/>
+    <hyperlink ref="A17" r:id="rId27" xr:uid="{3DD448EB-FBE1-4FA7-A90C-2DFD8AA0B572}"/>
+    <hyperlink ref="A20" r:id="rId28" xr:uid="{7F53D5F6-70D2-43FA-888E-207C8817F059}"/>
+    <hyperlink ref="A19" r:id="rId29" xr:uid="{B001A9EC-5834-4920-9B65-41E54DC46389}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
